--- a/similarities/split_global/harmonic_similarity_timestamps_170.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_170.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,348 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_283</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
+          <t>('0:00:59.333356', '0:01:08.841927')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:02:07.006105')]</t>
+          <t>('0:00:09.967000', '0:00:16.743000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=59.333356</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F#:min', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.660000', '0:00:09.640000')]</t>
+          <t>('0:00:26.110000', '0:00:31.880000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+          <t>('0:00:28.479798', '0:00:31.393902')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=28.479798</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:7', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:12.860000', '0:00:20.460000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=12.86</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:47.400000', '0:02:06.860000')]</t>
+          <t>('0:00:32.874217', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.940000', '0:00:17.780000')]</t>
+          <t>('0:02:01.080000', '0:02:02.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=107.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=32.874217</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=10.94']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:01:07.760000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:08.800000', '0:01:23.280000')]</t>
+          <t>('0:01:08.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:14.450000')]</t>
+          <t>('0:00:27.760000', '0:00:40.180000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -816,370 +834,404 @@
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:03:37.911000', '0:03:43.713000')]</t>
+          <t>('0:01:28.860000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+          <t>('0:01:25.160000', '0:01:34.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=88.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=85.16</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=18.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.774988', '0:00:12.870226')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:25.850181', '0:00:33.826235')]</t>
+          <t>('0:00:11.240000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.822000', '0:00:20.852000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=25.850181']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=13.822']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000'), ('0:01:48.500000', '0:02:05.020000')]</t>
+          <t>('0:02:25.040000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:36.420000', '0:00:39.460000'), ('0:00:56.800000', '0:01:01.480000')]</t>
+          <t>('0:00:21.722199', '0:00:26.760929')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=108.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=36.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=56.8']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:52.020000', '0:01:00.860000')]</t>
+          <t>('0:00:39.260000', '0:00:42.740000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.384180', '0:00:22.457415')]</t>
+          <t>('0:00:08.680000', '0:00:11.240000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=39.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=8.68</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:00.360000', '0:00:05.600000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:37.738798', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:02:13.780000', '0:02:15.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=133.78</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
